--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npy-Npy2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npy-Npy2r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.926322666666667</v>
+        <v>0.8200883333333334</v>
       </c>
       <c r="H2">
-        <v>23.778968</v>
+        <v>2.460265</v>
       </c>
       <c r="I2">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="J2">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1615595928071111</v>
+        <v>0.01671558713555556</v>
       </c>
       <c r="R2">
-        <v>1.454036335264</v>
+        <v>0.15044028422</v>
       </c>
       <c r="S2">
-        <v>0.7593601911550306</v>
+        <v>0.2405117342909232</v>
       </c>
       <c r="T2">
-        <v>0.7593601911550305</v>
+        <v>0.2405117342909232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.511836666666667</v>
+        <v>2.589676</v>
       </c>
       <c r="H3">
-        <v>7.53551</v>
+        <v>7.769028</v>
       </c>
       <c r="I3">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="J3">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.05119792949777779</v>
+        <v>0.05278450268266666</v>
       </c>
       <c r="R3">
-        <v>0.46078136548</v>
+        <v>0.475060524144</v>
       </c>
       <c r="S3">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
       <c r="T3">
-        <v>0.2406398088449694</v>
+        <v>0.7594882657090768</v>
       </c>
     </row>
   </sheetData>
